--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>869451.1437209595</v>
+        <v>866909.5685780349</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10009295.05931665</v>
+        <v>10009295.05931664</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>321.2529077939341</v>
+        <v>246.5708440610873</v>
       </c>
       <c r="D11" t="n">
-        <v>310.6630576436095</v>
+        <v>310.6630576436096</v>
       </c>
       <c r="E11" t="n">
-        <v>337.9103860951884</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>362.856061764638</v>
+        <v>362.8560617646381</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>366.9017416763801</v>
       </c>
       <c r="H11" t="n">
-        <v>250.587780410247</v>
+        <v>250.5877804102472</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>19.47706965944805</v>
+        <v>65.16777781110254</v>
       </c>
       <c r="T11" t="n">
-        <v>159.8979861625468</v>
+        <v>159.8979861625469</v>
       </c>
       <c r="U11" t="n">
-        <v>206.9751879818286</v>
+        <v>206.9751879818287</v>
       </c>
       <c r="V11" t="n">
-        <v>283.7322744930615</v>
+        <v>283.7322744930616</v>
       </c>
       <c r="W11" t="n">
-        <v>305.2209847403396</v>
+        <v>305.2209847403397</v>
       </c>
       <c r="X11" t="n">
-        <v>325.7111167013956</v>
+        <v>325.7111167013957</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.2179546789802</v>
+        <v>342.2179546789803</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.8119962048639</v>
+        <v>135.811996204864</v>
       </c>
       <c r="C13" t="n">
-        <v>52.77363402562429</v>
+        <v>123.2268371215545</v>
       </c>
       <c r="D13" t="n">
         <v>104.595489041139</v>
       </c>
       <c r="E13" t="n">
-        <v>102.4139786694958</v>
+        <v>102.4139786694959</v>
       </c>
       <c r="F13" t="n">
-        <v>101.4010640458579</v>
+        <v>83.28029738269039</v>
       </c>
       <c r="G13" t="n">
-        <v>122.0058242819548</v>
+        <v>122.0058242819549</v>
       </c>
       <c r="H13" t="n">
-        <v>100.7350309372474</v>
+        <v>100.7350309372475</v>
       </c>
       <c r="I13" t="n">
-        <v>52.33243643276469</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.91216869297394</v>
+        <v>44.91216869297403</v>
       </c>
       <c r="S13" t="n">
-        <v>145.7490413543685</v>
+        <v>145.7490413543686</v>
       </c>
       <c r="T13" t="n">
-        <v>175.5289652990958</v>
+        <v>175.5289652990959</v>
       </c>
       <c r="U13" t="n">
-        <v>242.1918542285395</v>
+        <v>242.1918542285396</v>
       </c>
       <c r="V13" t="n">
-        <v>208.1176593467546</v>
+        <v>208.1176593467547</v>
       </c>
       <c r="W13" t="n">
-        <v>242.5030143595176</v>
+        <v>242.5030143595177</v>
       </c>
       <c r="X13" t="n">
         <v>181.6896714119638</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.5646693750214</v>
+        <v>174.5646693750215</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>338.7138576864072</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>321.2529077939342</v>
       </c>
       <c r="D14" t="n">
-        <v>310.6630576436096</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>337.9103860951884</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>183.3904424543769</v>
+        <v>260.1231979889943</v>
       </c>
       <c r="G14" t="n">
         <v>366.9017416763801</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>250.5877804102471</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.16777781110244</v>
+        <v>65.16777781110245</v>
       </c>
       <c r="T14" t="n">
-        <v>159.8979861625467</v>
+        <v>159.8979861625468</v>
       </c>
       <c r="U14" t="n">
         <v>206.9751879818286</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,7 +1765,7 @@
         <v>135.8119962048639</v>
       </c>
       <c r="C16" t="n">
-        <v>123.2268371215544</v>
+        <v>123.2268371215545</v>
       </c>
       <c r="D16" t="n">
         <v>104.595489041139</v>
@@ -1774,16 +1774,16 @@
         <v>102.4139786694958</v>
       </c>
       <c r="F16" t="n">
-        <v>30.94786094992776</v>
+        <v>101.4010640458579</v>
       </c>
       <c r="G16" t="n">
-        <v>122.0058242819548</v>
+        <v>103.8850576187884</v>
       </c>
       <c r="H16" t="n">
         <v>100.7350309372474</v>
       </c>
       <c r="I16" t="n">
-        <v>52.3324364327647</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.91216869297394</v>
+        <v>44.91216869297398</v>
       </c>
       <c r="S16" t="n">
         <v>145.7490413543685</v>
@@ -1847,19 +1847,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>321.6212326268958</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
@@ -1901,7 +1901,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>178.3764882102146</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
         <v>302.2658320988205</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2008,19 +2008,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>237.4037513153032</v>
       </c>
       <c r="C20" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
-        <v>256.0037840564668</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.632627768728</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
         <v>302.2658320988205</v>
@@ -2147,7 +2147,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D22" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797667</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433874</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572828</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X22" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
         <v>359.9009091231189</v>
@@ -2333,7 +2333,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H23" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958333</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V23" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
         <v>302.2658320988205</v>
@@ -2384,7 +2384,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D25" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797667</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433874</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572828</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2555,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2776,7 +2776,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2965,10 +2965,10 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572717</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3281,7 +3281,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
         <v>204.0200353403094</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3427,22 +3427,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3478,7 +3478,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3487,7 +3487,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
         <v>171.6095167335022</v>
@@ -3503,22 +3503,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958321</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
         <v>204.0200353403094</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3715,7 +3715,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1665.774938359069</v>
+        <v>1619.622707902851</v>
       </c>
       <c r="C11" t="n">
-        <v>1341.27705169853</v>
+        <v>1370.56124925529</v>
       </c>
       <c r="D11" t="n">
-        <v>1027.475983371651</v>
+        <v>1056.760180928411</v>
       </c>
       <c r="E11" t="n">
-        <v>686.152361053279</v>
+        <v>1056.760180928411</v>
       </c>
       <c r="F11" t="n">
-        <v>319.6310865435441</v>
+        <v>690.2389064186756</v>
       </c>
       <c r="G11" t="n">
-        <v>319.6310865435441</v>
+        <v>319.6310865435442</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,10 +5039,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5051,10 +5051,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296686</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3305.932013872354</v>
+        <v>3259.779783416138</v>
       </c>
       <c r="T11" t="n">
-        <v>3144.418896536449</v>
+        <v>3098.266666080232</v>
       </c>
       <c r="U11" t="n">
-        <v>2935.353050090157</v>
+        <v>2889.20081963394</v>
       </c>
       <c r="V11" t="n">
-        <v>2648.754793026459</v>
+        <v>2602.602562570241</v>
       </c>
       <c r="W11" t="n">
-        <v>2340.450768036217</v>
+        <v>2294.298537579999</v>
       </c>
       <c r="X11" t="n">
-        <v>2011.449640055009</v>
+        <v>1965.297409598791</v>
       </c>
       <c r="Y11" t="n">
-        <v>1665.774938359069</v>
+        <v>1619.622707902851</v>
       </c>
     </row>
     <row r="12">
@@ -5109,10 +5109,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,16 +5121,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>709.1964168706519</v>
+        <v>709.1964168706505</v>
       </c>
       <c r="C13" t="n">
-        <v>655.8897158346678</v>
+        <v>584.7248642226157</v>
       </c>
       <c r="D13" t="n">
-        <v>550.2377067022042</v>
+        <v>479.072855090152</v>
       </c>
       <c r="E13" t="n">
-        <v>446.7892433996831</v>
+        <v>375.6243917876309</v>
       </c>
       <c r="F13" t="n">
-        <v>344.3639261816449</v>
+        <v>291.5028792798626</v>
       </c>
       <c r="G13" t="n">
-        <v>221.125719836236</v>
+        <v>168.2646729344536</v>
       </c>
       <c r="H13" t="n">
-        <v>119.3731633339659</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>155.2145330164216</v>
+        <v>155.2145330164215</v>
       </c>
       <c r="K13" t="n">
-        <v>402.7815001026007</v>
+        <v>402.7815001026004</v>
       </c>
       <c r="L13" t="n">
-        <v>762.9210826883995</v>
+        <v>762.921082688399</v>
       </c>
       <c r="M13" t="n">
         <v>1150.657912425251</v>
@@ -5224,25 +5224,25 @@
         <v>2230.566994224313</v>
       </c>
       <c r="S13" t="n">
-        <v>2083.345740331012</v>
+        <v>2083.345740331011</v>
       </c>
       <c r="T13" t="n">
-        <v>1906.04375518041</v>
+        <v>1906.043755180409</v>
       </c>
       <c r="U13" t="n">
-        <v>1661.405518585926</v>
+        <v>1661.405518585925</v>
       </c>
       <c r="V13" t="n">
-        <v>1451.185660659911</v>
+        <v>1451.18566065991</v>
       </c>
       <c r="W13" t="n">
-        <v>1206.233120902823</v>
+        <v>1206.233120902822</v>
       </c>
       <c r="X13" t="n">
-        <v>1022.708200284677</v>
+        <v>1022.708200284676</v>
       </c>
       <c r="Y13" t="n">
-        <v>846.3802514210195</v>
+        <v>846.3802514210182</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>1277.487498118603</v>
       </c>
       <c r="C14" t="n">
-        <v>1277.487498118603</v>
+        <v>952.9896114580636</v>
       </c>
       <c r="D14" t="n">
-        <v>963.6864297917242</v>
+        <v>952.9896114580636</v>
       </c>
       <c r="E14" t="n">
-        <v>622.3628074733521</v>
+        <v>952.9896114580636</v>
       </c>
       <c r="F14" t="n">
-        <v>437.1199363073148</v>
+        <v>690.2389064186755</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>319.6310865435441</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,10 +5276,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,7 +5288,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939507</v>
@@ -5309,7 +5309,7 @@
         <v>3098.266666080232</v>
       </c>
       <c r="U14" t="n">
-        <v>2889.200819633941</v>
+        <v>2889.20081963394</v>
       </c>
       <c r="V14" t="n">
         <v>2602.602562570242</v>
@@ -5346,10 +5346,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,16 +5358,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.196416870652</v>
+        <v>709.1964168706509</v>
       </c>
       <c r="C16" t="n">
-        <v>584.7248642226172</v>
+        <v>584.724864222616</v>
       </c>
       <c r="D16" t="n">
-        <v>479.0728550901536</v>
+        <v>479.0728550901524</v>
       </c>
       <c r="E16" t="n">
-        <v>375.6243917876325</v>
+        <v>375.6243917876314</v>
       </c>
       <c r="F16" t="n">
-        <v>344.3639261816449</v>
+        <v>273.1990745695931</v>
       </c>
       <c r="G16" t="n">
-        <v>221.125719836236</v>
+        <v>168.2646729344535</v>
       </c>
       <c r="H16" t="n">
-        <v>119.3731633339659</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>155.2145330164215</v>
+        <v>155.2145330164216</v>
       </c>
       <c r="K16" t="n">
-        <v>402.7815001026004</v>
+        <v>402.7815001026005</v>
       </c>
       <c r="L16" t="n">
-        <v>762.9210826883991</v>
+        <v>762.9210826883992</v>
       </c>
       <c r="M16" t="n">
         <v>1150.657912425251</v>
@@ -5461,25 +5461,25 @@
         <v>2230.566994224313</v>
       </c>
       <c r="S16" t="n">
-        <v>2083.345740331012</v>
+        <v>2083.345740331011</v>
       </c>
       <c r="T16" t="n">
-        <v>1906.04375518041</v>
+        <v>1906.043755180409</v>
       </c>
       <c r="U16" t="n">
-        <v>1661.405518585926</v>
+        <v>1661.405518585925</v>
       </c>
       <c r="V16" t="n">
-        <v>1451.185660659911</v>
+        <v>1451.18566065991</v>
       </c>
       <c r="W16" t="n">
-        <v>1206.233120902823</v>
+        <v>1206.233120902822</v>
       </c>
       <c r="X16" t="n">
-        <v>1022.708200284678</v>
+        <v>1022.708200284676</v>
       </c>
       <c r="Y16" t="n">
-        <v>846.3802514210196</v>
+        <v>846.3802514210184</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1404.8025029403</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C17" t="n">
-        <v>1083.289618947962</v>
+        <v>979.8546354718738</v>
       </c>
       <c r="D17" t="n">
-        <v>772.4735532892846</v>
+        <v>979.8546354718738</v>
       </c>
       <c r="E17" t="n">
-        <v>434.1349336391136</v>
+        <v>641.5160158217029</v>
       </c>
       <c r="F17" t="n">
-        <v>434.1349336391136</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,16 +5513,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5549,16 +5549,16 @@
         <v>2898.155827638544</v>
       </c>
       <c r="V17" t="n">
-        <v>2717.977556719135</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W17" t="n">
-        <v>2412.658534397094</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X17" t="n">
-        <v>2086.642409084087</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y17" t="n">
-        <v>1743.952710056349</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5583,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,7 +5610,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5671,13 +5671,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315254</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328083</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337111</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
@@ -5704,7 +5704,7 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V19" t="n">
         <v>1489.515482921749</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1909.439605883182</v>
+        <v>1400.715957574904</v>
       </c>
       <c r="C20" t="n">
-        <v>1587.926721890844</v>
+        <v>1079.203073582566</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.110656232167</v>
+        <v>768.3870079238886</v>
       </c>
       <c r="E20" t="n">
-        <v>938.7720365819955</v>
+        <v>430.0483882737176</v>
       </c>
       <c r="F20" t="n">
-        <v>575.2357647404611</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G20" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5759,7 +5759,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T20" t="n">
-        <v>3167.077706941466</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U20" t="n">
-        <v>3167.077706941466</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V20" t="n">
-        <v>2883.464452545968</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W20" t="n">
-        <v>2578.145430223928</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X20" t="n">
-        <v>2252.129304910921</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y20" t="n">
-        <v>1909.439605883182</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="21">
@@ -5805,64 +5805,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052949</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254611</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268788</v>
+        <v>434.8492327268782</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H22" t="n">
         <v>116.3881606657648</v>
@@ -5908,52 +5908,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q22" t="n">
         <v>2299.337630107746</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813348</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588248</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105847</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U22" t="n">
         <v>1696.750338179563</v>
       </c>
       <c r="V22" t="n">
-        <v>1489.51548292175</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874613</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C23" t="n">
         <v>1711.594658697161</v>
@@ -5975,61 +5975,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J23" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K23" t="n">
-        <v>1045.699547878784</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L23" t="n">
-        <v>1496.733761127193</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M23" t="n">
-        <v>2030.265665799118</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N23" t="n">
-        <v>2577.0444828579</v>
+        <v>2580.20875468258</v>
       </c>
       <c r="O23" t="n">
-        <v>3080.016953737237</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P23" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W23" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y23" t="n">
         <v>2372.257749805548</v>
@@ -6063,16 +6063,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L24" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
         <v>172.7749345960313</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N25" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V25" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467802</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M26" t="n">
-        <v>2030.265665799117</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N26" t="n">
-        <v>2577.044482857899</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O26" t="n">
-        <v>3080.016953737236</v>
+        <v>3051.647429808958</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913847</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415477</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.79051496434</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6388,10 +6388,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6415,19 +6415,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L29" t="n">
-        <v>1243.212295711678</v>
+        <v>1076.411957014867</v>
       </c>
       <c r="M29" t="n">
-        <v>1776.744200383602</v>
+        <v>1609.943861686791</v>
       </c>
       <c r="N29" t="n">
-        <v>2323.523017442385</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O29" t="n">
-        <v>2826.495488321721</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697991</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899655</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257031</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913832</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415461</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643384</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
         <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6655,16 +6655,16 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519654</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6701,19 +6701,19 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>792.1780824632697</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L32" t="n">
-        <v>1243.212295711679</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1776.744200383603</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2323.523017442385</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O32" t="n">
-        <v>2826.495488321722</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P32" t="n">
         <v>3539.850575768668</v>
@@ -6734,10 +6734,10 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
         <v>2714.947448833287</v>
@@ -6777,13 +6777,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6841,13 +6841,13 @@
         <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913839</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415468</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,16 +6856,16 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6923,7 +6923,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398486</v>
@@ -6935,28 +6935,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>887.9771891384787</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N35" t="n">
-        <v>2577.044482857899</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O35" t="n">
-        <v>3080.016953737236</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
@@ -6971,7 +6971,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
@@ -7014,25 +7014,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
@@ -7087,19 +7087,19 @@
         <v>229.7905149643393</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I37" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973139</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350172</v>
@@ -7108,19 +7108,19 @@
         <v>1564.908879308443</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
         <v>2189.856749167329</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
         <v>1953.038372570351</v>
@@ -7129,7 +7129,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F38" t="n">
-        <v>698.90370154678</v>
+        <v>698.9037015467806</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>603.8454215455611</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L38" t="n">
-        <v>1468.364237198916</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.89614187084</v>
+        <v>1872.543307058813</v>
       </c>
       <c r="N38" t="n">
-        <v>2548.674958929623</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O38" t="n">
-        <v>3051.64742980896</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P38" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309627</v>
@@ -7208,16 +7208,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7248,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F40" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982173</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7348,16 +7348,16 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
         <v>1953.038372570351</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689498</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7409,22 +7409,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>887.9771891384776</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L41" t="n">
-        <v>1339.011402386886</v>
+        <v>1453.404136464984</v>
       </c>
       <c r="M41" t="n">
-        <v>1872.543307058811</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285458</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164795</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P41" t="n">
         <v>3750.042416521973</v>
@@ -7448,13 +7448,13 @@
         <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833284</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805546</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7488,13 +7488,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I43" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="44">
@@ -7622,73 +7622,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455611</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L44" t="n">
-        <v>1243.212295711678</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M44" t="n">
-        <v>1776.744200383602</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N44" t="n">
-        <v>2323.523017442385</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O44" t="n">
-        <v>2826.495488321721</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P44" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7722,16 +7722,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
         <v>423.2675027973143</v>
@@ -7813,7 +7813,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>207.091755448937</v>
+        <v>207.0917554489376</v>
       </c>
       <c r="L8" t="n">
-        <v>219.6411280128602</v>
+        <v>219.641128012861</v>
       </c>
       <c r="M8" t="n">
-        <v>212.4037444773044</v>
+        <v>212.4037444773052</v>
       </c>
       <c r="N8" t="n">
-        <v>211.1802466203537</v>
+        <v>211.1802466203545</v>
       </c>
       <c r="O8" t="n">
-        <v>212.8814793728448</v>
+        <v>212.8814793728455</v>
       </c>
       <c r="P8" t="n">
-        <v>216.5389132747565</v>
+        <v>216.5389132747572</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.2710458816643</v>
+        <v>211.2710458816648</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>121.6722392886283</v>
+        <v>121.6722392886285</v>
       </c>
       <c r="K9" t="n">
-        <v>129.0129692144945</v>
+        <v>129.0129692144949</v>
       </c>
       <c r="L9" t="n">
-        <v>126.6834126868984</v>
+        <v>126.6834126868989</v>
       </c>
       <c r="M9" t="n">
-        <v>128.2811752418605</v>
+        <v>128.2811752418611</v>
       </c>
       <c r="N9" t="n">
-        <v>117.1222094543792</v>
+        <v>117.1222094543798</v>
       </c>
       <c r="O9" t="n">
-        <v>129.5881775442796</v>
+        <v>129.5881775442802</v>
       </c>
       <c r="P9" t="n">
-        <v>123.5342869155123</v>
+        <v>123.5342869155128</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.0028300142314</v>
+        <v>133.0028300142317</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>128.0701282031724</v>
+        <v>128.0701282031727</v>
       </c>
       <c r="M10" t="n">
-        <v>131.7407984694291</v>
+        <v>131.7407984694294</v>
       </c>
       <c r="N10" t="n">
-        <v>120.671401882496</v>
+        <v>120.6714018824963</v>
       </c>
       <c r="O10" t="n">
-        <v>131.9778425048103</v>
+        <v>131.9778425048106</v>
       </c>
       <c r="P10" t="n">
-        <v>132.1843604371512</v>
+        <v>132.1843604371515</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>277.2206841544144</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>274.8351763665441</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,10 +9878,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>446.3172993264875</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>306.6874953089268</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>190.2350110279876</v>
+        <v>21.74982042514876</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>190.2350110279885</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>131.2335379367268</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>287.0017854473917</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>277.2206841544134</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>117.9051702753189</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>94.37250464901945</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11060,22 +11060,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>287.0017854473904</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>78.40458911672857</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11300,22 +11300,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>190.2350110279876</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>287.0017854473926</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.7138576864072</v>
+        <v>338.7138576864073</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>74.68206373284698</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>337.9103860951885</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>366.90174167638</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>45.69070815165439</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>70.45320309593015</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>18.12076666316754</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>52.3324364327648</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>321.2529077939341</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.6630576436096</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>337.9103860951884</v>
       </c>
       <c r="F14" t="n">
-        <v>179.4656193102611</v>
+        <v>102.7328637756438</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>250.5877804102471</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>70.45320309593009</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>18.12076666316643</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.33243643276473</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23735,19 +23735,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>38.27967649622309</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.4006336413277</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.7587050448881</v>
+        <v>98.35495372958482</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>107.9428049783942</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958333</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403095</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.058708676282549e-12</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>907473.0960957502</v>
+        <v>907473.0960957503</v>
       </c>
     </row>
     <row r="9">
@@ -26314,19 +26314,19 @@
         <v>471083.894762297</v>
       </c>
       <c r="C2" t="n">
-        <v>471083.8947622969</v>
+        <v>471083.894762297</v>
       </c>
       <c r="D2" t="n">
         <v>471088.5716907323</v>
       </c>
       <c r="E2" t="n">
-        <v>436739.4737743032</v>
+        <v>436739.4737743033</v>
       </c>
       <c r="F2" t="n">
         <v>436739.4737743032</v>
       </c>
       <c r="G2" t="n">
-        <v>439605.3306866598</v>
+        <v>439605.3306866597</v>
       </c>
       <c r="H2" t="n">
         <v>439605.33068666</v>
@@ -26335,25 +26335,25 @@
         <v>472099.0176719635</v>
       </c>
       <c r="J2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="K2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719634</v>
       </c>
       <c r="L2" t="n">
         <v>472099.0176719634</v>
       </c>
       <c r="M2" t="n">
+        <v>472099.0176719633</v>
+      </c>
+      <c r="N2" t="n">
+        <v>472099.0176719634</v>
+      </c>
+      <c r="O2" t="n">
+        <v>472099.0176719635</v>
+      </c>
+      <c r="P2" t="n">
         <v>472099.0176719637</v>
-      </c>
-      <c r="N2" t="n">
-        <v>472099.0176719636</v>
-      </c>
-      <c r="O2" t="n">
-        <v>472099.0176719637</v>
-      </c>
-      <c r="P2" t="n">
-        <v>472099.0176719634</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>21768.40754808936</v>
+        <v>21768.40754808837</v>
       </c>
       <c r="E3" t="n">
-        <v>1138563.072304449</v>
+        <v>1138563.07230445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="G3" t="n">
         <v>2364.122113215342</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902295</v>
+        <v>48646.25967902289</v>
       </c>
       <c r="J3" t="n">
-        <v>35215.98718165878</v>
+        <v>35215.9871816587</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2364.122113215331</v>
+        <v>2364.122113215365</v>
       </c>
       <c r="M3" t="n">
         <v>207188.5682920729</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35215.98718165872</v>
+        <v>35215.9871816587</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>425523.1391661036</v>
       </c>
       <c r="D4" t="n">
-        <v>419031.3047786788</v>
+        <v>419031.3047786792</v>
       </c>
       <c r="E4" t="n">
-        <v>54143.61424359361</v>
+        <v>54143.6142435935</v>
       </c>
       <c r="F4" t="n">
-        <v>54143.6142435936</v>
+        <v>54143.61424359358</v>
       </c>
       <c r="G4" t="n">
-        <v>56995.66948357393</v>
+        <v>56995.66948357394</v>
       </c>
       <c r="H4" t="n">
-        <v>56995.66948357386</v>
+        <v>56995.6694835739</v>
       </c>
       <c r="I4" t="n">
-        <v>78703.96570883342</v>
+        <v>78703.96570883351</v>
       </c>
       <c r="J4" t="n">
-        <v>78703.96570883346</v>
+        <v>78703.9657088336</v>
       </c>
       <c r="K4" t="n">
-        <v>78703.96570883346</v>
+        <v>78703.96570883351</v>
       </c>
       <c r="L4" t="n">
-        <v>78703.96570883348</v>
+        <v>78703.96570883355</v>
       </c>
       <c r="M4" t="n">
-        <v>78703.96570883348</v>
+        <v>78703.96570883354</v>
       </c>
       <c r="N4" t="n">
         <v>78703.96570883351</v>
       </c>
       <c r="O4" t="n">
-        <v>78703.96570883345</v>
+        <v>78703.96570883351</v>
       </c>
       <c r="P4" t="n">
-        <v>78703.96570883345</v>
+        <v>78703.96570883354</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34181.71434720631</v>
+        <v>34181.71434720629</v>
       </c>
       <c r="E5" t="n">
         <v>78007.05659436187</v>
@@ -26482,16 +26482,16 @@
         <v>78007.05659436187</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="H5" t="n">
         <v>78255.49332178175</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26506,7 +26506,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11933.15559619349</v>
+        <v>11928.74201832537</v>
       </c>
       <c r="C6" t="n">
-        <v>11933.15559619337</v>
+        <v>11928.74201832532</v>
       </c>
       <c r="D6" t="n">
-        <v>-3892.854983242192</v>
+        <v>-3897.248226638185</v>
       </c>
       <c r="E6" t="n">
-        <v>-833974.2693681011</v>
+        <v>-834128.0065154831</v>
       </c>
       <c r="F6" t="n">
-        <v>304588.8029363477</v>
+        <v>304435.0657889665</v>
       </c>
       <c r="G6" t="n">
-        <v>301990.0457680888</v>
+        <v>301848.7688681526</v>
       </c>
       <c r="H6" t="n">
-        <v>304354.1678813044</v>
+        <v>304212.8909813683</v>
       </c>
       <c r="I6" t="n">
-        <v>255370.850609301</v>
+        <v>255370.8506093011</v>
       </c>
       <c r="J6" t="n">
-        <v>268801.1231066649</v>
+        <v>268801.1231066648</v>
       </c>
       <c r="K6" t="n">
-        <v>304017.1102883237</v>
+        <v>304017.1102883238</v>
       </c>
       <c r="L6" t="n">
-        <v>301652.9881751084</v>
+        <v>301652.9881751083</v>
       </c>
       <c r="M6" t="n">
-        <v>96828.54199625121</v>
+        <v>96828.5419962508</v>
       </c>
       <c r="N6" t="n">
+        <v>304017.1102883238</v>
+      </c>
+      <c r="O6" t="n">
+        <v>268801.1231066652</v>
+      </c>
+      <c r="P6" t="n">
         <v>304017.110288324</v>
-      </c>
-      <c r="O6" t="n">
-        <v>268801.1231066654</v>
-      </c>
-      <c r="P6" t="n">
-        <v>304017.1102883239</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="F2" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859262</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="N2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859262</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859262</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859255</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.41808932139054</v>
+        <v>25.41808932138939</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26808,13 +26808,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="J4" t="n">
         <v>1014.336461208615</v>
       </c>
-      <c r="J4" t="n">
-        <v>1014.336461208614</v>
-      </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
         <v>1014.336461208615</v>
@@ -26823,13 +26823,13 @@
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="G2" t="n">
         <v>2.955152641519177</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.01998397707347</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.955152641519163</v>
+        <v>2.955152641519206</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.41808932139054</v>
+        <v>25.41808932138939</v>
       </c>
       <c r="E3" t="n">
-        <v>1064.358611271908</v>
+        <v>1064.358611271909</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.935005806322</v>
+        <v>182.9350058063218</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="L2" t="n">
         <v>2.955152641519177</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.01998397707347</v>
+        <v>44.01998397707337</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.4283176644598</v>
+        <v>338.4283176644599</v>
       </c>
       <c r="I8" t="n">
-        <v>206.5364689128666</v>
+        <v>206.5364689128668</v>
       </c>
       <c r="J8" t="n">
-        <v>3.276611732335651</v>
+        <v>3.276611732336043</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>143.4503478774922</v>
+        <v>143.4503478774925</v>
       </c>
       <c r="S8" t="n">
-        <v>206.6915682378587</v>
+        <v>206.6915682378588</v>
       </c>
       <c r="T8" t="n">
         <v>222.6485422837117</v>
@@ -27950,7 +27950,7 @@
         <v>111.7074193998389</v>
       </c>
       <c r="I9" t="n">
-        <v>87.51425548185927</v>
+        <v>87.51425548185935</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.76332026176007</v>
+        <v>96.76332026176023</v>
       </c>
       <c r="S9" t="n">
-        <v>170.6676464974596</v>
+        <v>170.6676464974597</v>
       </c>
       <c r="T9" t="n">
-        <v>199.944358656271</v>
+        <v>199.9443586562711</v>
       </c>
       <c r="U9" t="n">
         <v>225.9377851815426</v>
@@ -28032,10 +28032,10 @@
         <v>154.072064444059</v>
       </c>
       <c r="J10" t="n">
-        <v>90.11858207318991</v>
+        <v>90.11858207319007</v>
       </c>
       <c r="K10" t="n">
-        <v>16.9441937680571</v>
+        <v>16.94419376805734</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.32391176416441</v>
+        <v>82.32391176416459</v>
       </c>
       <c r="R10" t="n">
-        <v>175.2324426921925</v>
+        <v>175.2324426921926</v>
       </c>
       <c r="S10" t="n">
         <v>223.2178033282984</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="C11" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="D11" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="E11" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="F11" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="G11" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="H11" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="T11" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="U11" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="V11" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="W11" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="X11" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="C13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="D13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="E13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="F13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="G13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="H13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="I13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="J13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="K13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="L13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="M13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="N13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="O13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="P13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="R13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="S13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="T13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="U13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="V13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="W13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="X13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.0199839770734</v>
+        <v>44.01998397707331</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="C14" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="D14" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="E14" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="F14" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="G14" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="H14" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="T14" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="U14" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="V14" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="W14" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="X14" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="C16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="D16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="E16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="F16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="G16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="H16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="I16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="J16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="K16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="L16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="M16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="N16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="O16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="P16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="R16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="S16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="T16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="U16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="V16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="W16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="X16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.01998397707339</v>
+        <v>44.01998397707338</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859306</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859358</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859267</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859358</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859114</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859119</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859223</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1021832736538312</v>
+        <v>0.1021832736538266</v>
       </c>
       <c r="H8" t="n">
-        <v>1.0464844513073</v>
+        <v>1.046484451307252</v>
       </c>
       <c r="I8" t="n">
-        <v>3.939420657539332</v>
+        <v>3.939420657539154</v>
       </c>
       <c r="J8" t="n">
-        <v>8.672677622276867</v>
+        <v>8.672677622276474</v>
       </c>
       <c r="K8" t="n">
-        <v>12.99809559604355</v>
+        <v>12.99809559604296</v>
       </c>
       <c r="L8" t="n">
-        <v>16.12528695712699</v>
+        <v>16.12528695712626</v>
       </c>
       <c r="M8" t="n">
-        <v>17.94248874996831</v>
+        <v>17.9424887499675</v>
       </c>
       <c r="N8" t="n">
-        <v>18.23281697623726</v>
+        <v>18.23281697623643</v>
       </c>
       <c r="O8" t="n">
-        <v>17.21673204884197</v>
+        <v>17.21673204884119</v>
       </c>
       <c r="P8" t="n">
-        <v>14.69408248051301</v>
+        <v>14.69408248051234</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.03464399278518</v>
+        <v>11.03464399278468</v>
       </c>
       <c r="R8" t="n">
-        <v>6.418770063657482</v>
+        <v>6.418770063657192</v>
       </c>
       <c r="S8" t="n">
-        <v>2.328501348386681</v>
+        <v>2.328501348386576</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4473072804196465</v>
+        <v>0.4473072804196262</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008174661892306498</v>
+        <v>0.008174661892306126</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05467287137053814</v>
+        <v>0.05467287137053567</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5280248366575658</v>
+        <v>0.528024836657542</v>
       </c>
       <c r="I9" t="n">
-        <v>1.882377369555809</v>
+        <v>1.882377369555724</v>
       </c>
       <c r="J9" t="n">
-        <v>5.165387378038431</v>
+        <v>5.165387378038197</v>
       </c>
       <c r="K9" t="n">
-        <v>8.828469759864486</v>
+        <v>8.828469759864086</v>
       </c>
       <c r="L9" t="n">
-        <v>11.87096709297584</v>
+        <v>11.8709670929753</v>
       </c>
       <c r="M9" t="n">
-        <v>13.85285868015784</v>
+        <v>13.85285868015722</v>
       </c>
       <c r="N9" t="n">
-        <v>14.21950262895413</v>
+        <v>14.21950262895349</v>
       </c>
       <c r="O9" t="n">
-        <v>13.00806690016484</v>
+        <v>13.00806690016425</v>
       </c>
       <c r="P9" t="n">
-        <v>10.44012049881794</v>
+        <v>10.44012049881747</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.978944071790098</v>
+        <v>6.978944071789781</v>
       </c>
       <c r="R9" t="n">
-        <v>3.394513890883062</v>
+        <v>3.394513890882909</v>
       </c>
       <c r="S9" t="n">
-        <v>1.015524606378197</v>
+        <v>1.015524606378151</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2203700385505462</v>
+        <v>0.2203700385505362</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003596899432272248</v>
+        <v>0.003596899432272085</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04583589877627801</v>
+        <v>0.04583589877627594</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4075228091199994</v>
+        <v>0.407522809119981</v>
       </c>
       <c r="I10" t="n">
-        <v>1.378410483199343</v>
+        <v>1.378410483199281</v>
       </c>
       <c r="J10" t="n">
-        <v>3.240598043482855</v>
+        <v>3.240598043482709</v>
       </c>
       <c r="K10" t="n">
-        <v>5.325298057825754</v>
+        <v>5.325298057825512</v>
       </c>
       <c r="L10" t="n">
-        <v>6.814548078065917</v>
+        <v>6.814548078065608</v>
       </c>
       <c r="M10" t="n">
-        <v>7.184985478176015</v>
+        <v>7.18498547817569</v>
       </c>
       <c r="N10" t="n">
-        <v>7.014142582737168</v>
+        <v>7.01414258273685</v>
       </c>
       <c r="O10" t="n">
-        <v>6.478695947032462</v>
+        <v>6.478695947032169</v>
       </c>
       <c r="P10" t="n">
-        <v>5.543643611996386</v>
+        <v>5.543643611996135</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.838131487529971</v>
+        <v>3.838131487529798</v>
       </c>
       <c r="R10" t="n">
-        <v>2.060948684977009</v>
+        <v>2.060948684976916</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7987947086738629</v>
+        <v>0.7987947086738268</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1958442947713697</v>
+        <v>0.1958442947713608</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002500139933251531</v>
+        <v>0.002500139933251418</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M12" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M12" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>89.59840059013962</v>
+        <v>89.59840059013951</v>
       </c>
       <c r="K13" t="n">
-        <v>250.067643521393</v>
+        <v>250.0676435213928</v>
       </c>
       <c r="L13" t="n">
-        <v>363.7773561472715</v>
+        <v>363.7773561472713</v>
       </c>
       <c r="M13" t="n">
-        <v>391.6533633705573</v>
+        <v>391.6533633705571</v>
       </c>
       <c r="N13" t="n">
-        <v>388.8769301446135</v>
+        <v>388.8769301446133</v>
       </c>
       <c r="O13" t="n">
-        <v>346.3731141997132</v>
+        <v>346.373114199713</v>
       </c>
       <c r="P13" t="n">
-        <v>278.9770551221839</v>
+        <v>278.9770551221837</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.4142225149671</v>
+        <v>122.4142225149669</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>89.59840059013962</v>
+        <v>89.59840059013958</v>
       </c>
       <c r="K16" t="n">
-        <v>250.067643521393</v>
+        <v>250.0676435213929</v>
       </c>
       <c r="L16" t="n">
         <v>363.7773561472715</v>
       </c>
       <c r="M16" t="n">
-        <v>391.6533633705573</v>
+        <v>391.6533633705571</v>
       </c>
       <c r="N16" t="n">
         <v>388.8769301446134</v>
       </c>
       <c r="O16" t="n">
-        <v>346.3731141997132</v>
+        <v>346.3731141997131</v>
       </c>
       <c r="P16" t="n">
-        <v>278.9770551221839</v>
+        <v>278.9770551221837</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.4142225149671</v>
+        <v>122.414222514967</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N19" t="n">
         <v>391.8320827861326</v>
@@ -36057,10 +36057,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564867</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,13 +36127,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861336</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>614.4119707098149</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>782.8881772547631</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L25" t="n">
         <v>366.7325087887906</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120774</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N25" t="n">
         <v>391.8320827861326</v>
@@ -36534,7 +36534,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>985.2384151567143</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>705.4494815282984</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36771,7 +36771,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>645.8251254203198</v>
+        <v>477.3399348174807</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>527.426297583389</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>529.9955241560984</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359772</v>
+        <v>94.62350453597773</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,16 +37233,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>624.1930720027921</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>829.5225195673249</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.608516012075</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>656.8262861055455</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>493.1344908683913</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637016</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>624.1930720027909</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>533.9947035090605</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165846</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>645.8251254203198</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>795.0547863356117</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597773</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,7 +38181,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
